--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3169.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3169.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.440086713804051</v>
+        <v>1.00581157207489</v>
       </c>
       <c r="B1">
-        <v>1.543071231290668</v>
+        <v>2.274240493774414</v>
       </c>
       <c r="C1">
-        <v>1.781210429468874</v>
+        <v>4.903514385223389</v>
       </c>
       <c r="D1">
-        <v>2.886992891954116</v>
+        <v>1.649831056594849</v>
       </c>
       <c r="E1">
-        <v>7.682903675975228</v>
+        <v>1.282908916473389</v>
       </c>
     </row>
   </sheetData>
